--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Grn-Sort1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Grn-Sort1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>43.8278361642453</v>
+        <v>61.91334466666666</v>
       </c>
       <c r="H2">
-        <v>43.8278361642453</v>
+        <v>185.740034</v>
       </c>
       <c r="I2">
-        <v>0.4186198098493296</v>
+        <v>0.5020829437194911</v>
       </c>
       <c r="J2">
-        <v>0.4186198098493296</v>
+        <v>0.5020829437194911</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.3576923313778</v>
+        <v>4.358929333333333</v>
       </c>
       <c r="N2">
-        <v>3.3576923313778</v>
+        <v>13.076788</v>
       </c>
       <c r="O2">
-        <v>0.2770806029879332</v>
+        <v>0.315486934607403</v>
       </c>
       <c r="P2">
-        <v>0.2770806029879332</v>
+        <v>0.315486934607403</v>
       </c>
       <c r="Q2">
-        <v>147.160389389569</v>
+        <v>269.8758941923102</v>
       </c>
       <c r="R2">
-        <v>147.160389389569</v>
+        <v>2428.883047730792</v>
       </c>
       <c r="S2">
-        <v>0.1159914293357462</v>
+        <v>0.1584006088327235</v>
       </c>
       <c r="T2">
-        <v>0.1159914293357462</v>
+        <v>0.1584006088327235</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>43.8278361642453</v>
+        <v>61.91334466666666</v>
       </c>
       <c r="H3">
-        <v>43.8278361642453</v>
+        <v>185.740034</v>
       </c>
       <c r="I3">
-        <v>0.4186198098493296</v>
+        <v>0.5020829437194911</v>
       </c>
       <c r="J3">
-        <v>0.4186198098493296</v>
+        <v>0.5020829437194911</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.74885430653512</v>
+        <v>1.781382333333333</v>
       </c>
       <c r="N3">
-        <v>1.74885430653512</v>
+        <v>5.344147</v>
       </c>
       <c r="O3">
-        <v>0.1443174531699735</v>
+        <v>0.1289313977653647</v>
       </c>
       <c r="P3">
-        <v>0.1443174531699735</v>
+        <v>0.1289313977653647</v>
       </c>
       <c r="Q3">
-        <v>76.64850002195607</v>
+        <v>110.2913383867775</v>
       </c>
       <c r="R3">
-        <v>76.64850002195607</v>
+        <v>992.6220454809978</v>
       </c>
       <c r="S3">
-        <v>0.06041414480395385</v>
+        <v>0.06473425572790295</v>
       </c>
       <c r="T3">
-        <v>0.06041414480395385</v>
+        <v>0.06473425572790295</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>43.8278361642453</v>
+        <v>61.91334466666666</v>
       </c>
       <c r="H4">
-        <v>43.8278361642453</v>
+        <v>185.740034</v>
       </c>
       <c r="I4">
-        <v>0.4186198098493296</v>
+        <v>0.5020829437194911</v>
       </c>
       <c r="J4">
-        <v>0.4186198098493296</v>
+        <v>0.5020829437194911</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.01156013379793</v>
+        <v>7.676201333333334</v>
       </c>
       <c r="N4">
-        <v>7.01156013379793</v>
+        <v>23.028604</v>
       </c>
       <c r="O4">
-        <v>0.5786019438420932</v>
+        <v>0.5555816676272323</v>
       </c>
       <c r="P4">
-        <v>0.5786019438420932</v>
+        <v>0.5555816676272323</v>
       </c>
       <c r="Q4">
-        <v>307.3015087998496</v>
+        <v>475.2592988813929</v>
       </c>
       <c r="R4">
-        <v>307.3015087998496</v>
+        <v>4277.333689932536</v>
       </c>
       <c r="S4">
-        <v>0.2422142357096295</v>
+        <v>0.2789480791588647</v>
       </c>
       <c r="T4">
-        <v>0.2422142357096295</v>
+        <v>0.2789480791588647</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>49.9888272123428</v>
+        <v>50.09443433333333</v>
       </c>
       <c r="H5">
-        <v>49.9888272123428</v>
+        <v>150.283303</v>
       </c>
       <c r="I5">
-        <v>0.4774662674150817</v>
+        <v>0.4062381250674705</v>
       </c>
       <c r="J5">
-        <v>0.4774662674150817</v>
+        <v>0.4062381250674706</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.3576923313778</v>
+        <v>4.358929333333333</v>
       </c>
       <c r="N5">
-        <v>3.3576923313778</v>
+        <v>13.076788</v>
       </c>
       <c r="O5">
-        <v>0.2770806029879332</v>
+        <v>0.315486934607403</v>
       </c>
       <c r="P5">
-        <v>0.2770806029879332</v>
+        <v>0.315486934607403</v>
       </c>
       <c r="Q5">
-        <v>167.8471017854533</v>
+        <v>218.3580992523071</v>
       </c>
       <c r="R5">
-        <v>167.8471017854533</v>
+        <v>1965.222893270764</v>
       </c>
       <c r="S5">
-        <v>0.1322966412817686</v>
+        <v>0.128162820798195</v>
       </c>
       <c r="T5">
-        <v>0.1322966412817686</v>
+        <v>0.1281628207981951</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>49.9888272123428</v>
+        <v>50.09443433333333</v>
       </c>
       <c r="H6">
-        <v>49.9888272123428</v>
+        <v>150.283303</v>
       </c>
       <c r="I6">
-        <v>0.4774662674150817</v>
+        <v>0.4062381250674705</v>
       </c>
       <c r="J6">
-        <v>0.4774662674150817</v>
+        <v>0.4062381250674706</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.74885430653512</v>
+        <v>1.781382333333333</v>
       </c>
       <c r="N6">
-        <v>1.74885430653512</v>
+        <v>5.344147</v>
       </c>
       <c r="O6">
-        <v>0.1443174531699735</v>
+        <v>0.1289313977653647</v>
       </c>
       <c r="P6">
-        <v>0.1443174531699735</v>
+        <v>0.1289313977653647</v>
       </c>
       <c r="Q6">
-        <v>87.42317574894571</v>
+        <v>89.23734031972677</v>
       </c>
       <c r="R6">
-        <v>87.42317574894571</v>
+        <v>803.1360628775409</v>
       </c>
       <c r="S6">
-        <v>0.06890671568791812</v>
+        <v>0.05237684929053003</v>
       </c>
       <c r="T6">
-        <v>0.06890671568791812</v>
+        <v>0.05237684929053004</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>49.9888272123428</v>
+        <v>50.09443433333333</v>
       </c>
       <c r="H7">
-        <v>49.9888272123428</v>
+        <v>150.283303</v>
       </c>
       <c r="I7">
-        <v>0.4774662674150817</v>
+        <v>0.4062381250674705</v>
       </c>
       <c r="J7">
-        <v>0.4774662674150817</v>
+        <v>0.4062381250674706</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.01156013379793</v>
+        <v>7.676201333333334</v>
       </c>
       <c r="N7">
-        <v>7.01156013379793</v>
+        <v>23.028604</v>
       </c>
       <c r="O7">
-        <v>0.5786019438420932</v>
+        <v>0.5555816676272323</v>
       </c>
       <c r="P7">
-        <v>0.5786019438420932</v>
+        <v>0.5555816676272323</v>
       </c>
       <c r="Q7">
-        <v>350.4996680173759</v>
+        <v>384.5349636221125</v>
       </c>
       <c r="R7">
-        <v>350.4996680173759</v>
+        <v>3460.814672599012</v>
       </c>
       <c r="S7">
-        <v>0.2762629104453949</v>
+        <v>0.2256984549787454</v>
       </c>
       <c r="T7">
-        <v>0.2762629104453949</v>
+        <v>0.2256984549787455</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.8793761634898</v>
+        <v>11.30520233333333</v>
       </c>
       <c r="H8">
-        <v>10.8793761634898</v>
+        <v>33.915607</v>
       </c>
       <c r="I8">
-        <v>0.1039139227355888</v>
+        <v>0.09167893121303822</v>
       </c>
       <c r="J8">
-        <v>0.1039139227355888</v>
+        <v>0.09167893121303823</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.3576923313778</v>
+        <v>4.358929333333333</v>
       </c>
       <c r="N8">
-        <v>3.3576923313778</v>
+        <v>13.076788</v>
       </c>
       <c r="O8">
-        <v>0.2770806029879332</v>
+        <v>0.315486934607403</v>
       </c>
       <c r="P8">
-        <v>0.2770806029879332</v>
+        <v>0.315486934607403</v>
       </c>
       <c r="Q8">
-        <v>36.52959791432414</v>
+        <v>49.27857807003511</v>
       </c>
       <c r="R8">
-        <v>36.52959791432414</v>
+        <v>443.507202630316</v>
       </c>
       <c r="S8">
-        <v>0.02879253237041844</v>
+        <v>0.02892350497648438</v>
       </c>
       <c r="T8">
-        <v>0.02879253237041844</v>
+        <v>0.02892350497648439</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.8793761634898</v>
+        <v>11.30520233333333</v>
       </c>
       <c r="H9">
-        <v>10.8793761634898</v>
+        <v>33.915607</v>
       </c>
       <c r="I9">
-        <v>0.1039139227355888</v>
+        <v>0.09167893121303822</v>
       </c>
       <c r="J9">
-        <v>0.1039139227355888</v>
+        <v>0.09167893121303823</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.74885430653512</v>
+        <v>1.781382333333333</v>
       </c>
       <c r="N9">
-        <v>1.74885430653512</v>
+        <v>5.344147</v>
       </c>
       <c r="O9">
-        <v>0.1443174531699735</v>
+        <v>0.1289313977653647</v>
       </c>
       <c r="P9">
-        <v>0.1443174531699735</v>
+        <v>0.1289313977653647</v>
       </c>
       <c r="Q9">
-        <v>19.02644385593467</v>
+        <v>20.13888771135878</v>
       </c>
       <c r="R9">
-        <v>19.02644385593467</v>
+        <v>181.249989402229</v>
       </c>
       <c r="S9">
-        <v>0.01499659267810158</v>
+        <v>0.01182029274693174</v>
       </c>
       <c r="T9">
-        <v>0.01499659267810158</v>
+        <v>0.01182029274693175</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.8793761634898</v>
+        <v>11.30520233333333</v>
       </c>
       <c r="H10">
-        <v>10.8793761634898</v>
+        <v>33.915607</v>
       </c>
       <c r="I10">
-        <v>0.1039139227355888</v>
+        <v>0.09167893121303822</v>
       </c>
       <c r="J10">
-        <v>0.1039139227355888</v>
+        <v>0.09167893121303823</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.01156013379793</v>
+        <v>7.676201333333334</v>
       </c>
       <c r="N10">
-        <v>7.01156013379793</v>
+        <v>23.028604</v>
       </c>
       <c r="O10">
-        <v>0.5786019438420932</v>
+        <v>0.5555816676272323</v>
       </c>
       <c r="P10">
-        <v>0.5786019438420932</v>
+        <v>0.5555816676272323</v>
       </c>
       <c r="Q10">
-        <v>76.28140018851656</v>
+        <v>86.78100922473645</v>
       </c>
       <c r="R10">
-        <v>76.28140018851656</v>
+        <v>781.0290830226281</v>
       </c>
       <c r="S10">
-        <v>0.06012479768706874</v>
+        <v>0.05093513348962209</v>
       </c>
       <c r="T10">
-        <v>0.06012479768706874</v>
+        <v>0.05093513348962209</v>
       </c>
     </row>
   </sheetData>
